--- a/output/1Y_P86_KFSDIV.xlsx
+++ b/output/1Y_P86_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.3341</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="F3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="H3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0435</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1979.3449</v>
+        <v>1975.388</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="H4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1044</v>
+        <v>10.1246</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.4908</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E5" s="1">
-        <v>2982.6055</v>
+        <v>2976.6395</v>
       </c>
       <c r="F5" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="H5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0583</v>
+        <v>10.0785</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0525</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.6308</v>
       </c>
       <c r="C6" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D6" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E6" s="1">
-        <v>3935.8216</v>
+        <v>3927.9514</v>
       </c>
       <c r="F6" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="H6" s="1">
-        <v>41840.9324</v>
+        <v>41673.6003</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41840.9324</v>
+        <v>41673.6003</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1631</v>
+        <v>10.1834</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0133</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.3176</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E7" s="1">
-        <v>4876.4846</v>
+        <v>4866.7334</v>
       </c>
       <c r="F7" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="H7" s="1">
-        <v>50313.6175</v>
+        <v>50112.754</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50313.6175</v>
+        <v>50112.754</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2533</v>
+        <v>10.2738</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0295</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.2392</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E8" s="1">
-        <v>5845.7022</v>
+        <v>5834.0104</v>
       </c>
       <c r="F8" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="H8" s="1">
-        <v>59855.3144</v>
+        <v>59616.0025</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59855.3144</v>
+        <v>59616.0025</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.264</v>
+        <v>10.2845</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0076</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D9" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6822.341</v>
+        <v>6808.6978</v>
       </c>
       <c r="F9" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H9" s="1">
-        <v>68079.459</v>
+        <v>67807.82150000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68079.459</v>
+        <v>67807.82150000001</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2604</v>
+        <v>10.281</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1315.283</v>
+        <v>1312.6523</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8684.717000000001</v>
+        <v>-8687.3477</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0254</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.1873</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E10" s="1">
-        <v>7824.4455</v>
+        <v>7808.7978</v>
       </c>
       <c r="F10" s="1">
-        <v>1013.8919</v>
+        <v>1011.8012</v>
       </c>
       <c r="H10" s="1">
-        <v>79709.97319999999</v>
+        <v>79391.2665</v>
       </c>
       <c r="I10" s="1">
-        <v>1315.283</v>
+        <v>1312.6523</v>
       </c>
       <c r="J10" s="1">
-        <v>81025.25629999999</v>
+        <v>80703.9189</v>
       </c>
       <c r="K10" s="1">
         <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2244</v>
+        <v>10.2449</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10328.8208</v>
+        <v>-10328.1631</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0377</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.4058</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E11" s="1">
-        <v>8838.337299999999</v>
+        <v>8820.599</v>
       </c>
       <c r="F11" s="1">
-        <v>992.6023</v>
+        <v>990.5496000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>91969.97070000001</v>
+        <v>91601.92080000001</v>
       </c>
       <c r="I11" s="1">
-        <v>986.4623</v>
+        <v>984.4893</v>
       </c>
       <c r="J11" s="1">
-        <v>92956.433</v>
+        <v>92586.41</v>
       </c>
       <c r="K11" s="1">
-        <v>90328.8208</v>
+        <v>90328.16310000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2201</v>
+        <v>10.2406</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10328.8208</v>
+        <v>-10328.1631</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0212</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.2688</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E12" s="1">
-        <v>9830.9396</v>
+        <v>9811.1486</v>
       </c>
       <c r="F12" s="1">
-        <v>1005.845</v>
+        <v>1003.7673</v>
       </c>
       <c r="H12" s="1">
-        <v>100951.9527</v>
+        <v>100547.5939</v>
       </c>
       <c r="I12" s="1">
-        <v>657.6415</v>
+        <v>656.3262</v>
       </c>
       <c r="J12" s="1">
-        <v>101609.5942</v>
+        <v>101203.9201</v>
       </c>
       <c r="K12" s="1">
-        <v>100657.6415</v>
+        <v>100656.3262</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2389</v>
+        <v>10.2594</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>795.4503999999999</v>
+        <v>793.8539</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9533.3704</v>
+        <v>-9534.3092</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0131</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.4938</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E13" s="1">
-        <v>10836.7846</v>
+        <v>10814.9159</v>
       </c>
       <c r="F13" s="1">
-        <v>1060.0803</v>
+        <v>1057.7488</v>
       </c>
       <c r="H13" s="1">
-        <v>113719.05</v>
+        <v>113262.4508</v>
       </c>
       <c r="I13" s="1">
-        <v>1124.2711</v>
+        <v>1122.017</v>
       </c>
       <c r="J13" s="1">
-        <v>114843.3211</v>
+        <v>114384.4678</v>
       </c>
       <c r="K13" s="1">
-        <v>110986.4623</v>
+        <v>110984.4893</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2416</v>
+        <v>10.2622</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11124.2711</v>
+        <v>-11122.017</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.029</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.5481</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E14" s="1">
-        <v>11896.8649</v>
+        <v>11872.6647</v>
       </c>
       <c r="F14" s="1">
-        <v>-11896.8649</v>
+        <v>-11872.6647</v>
       </c>
       <c r="H14" s="1">
-        <v>125489.3209</v>
+        <v>124983.5408</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125489.3209</v>
+        <v>124983.5408</v>
       </c>
       <c r="K14" s="1">
-        <v>122110.7334</v>
+        <v>122106.5063</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2641</v>
+        <v>10.2847</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125489.3209</v>
+        <v>124983.5408</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.3341</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="F3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0435</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1979.3449</v>
+        <v>1975.388</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1044</v>
+        <v>10.1246</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.4908</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E5" s="1">
-        <v>2982.6055</v>
+        <v>2976.6395</v>
       </c>
       <c r="F5" s="1">
-        <v>830.2591</v>
+        <v>843.8728</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0583</v>
+        <v>10.0785</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8710.0826</v>
+        <v>-8870.621999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0525</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.6308</v>
       </c>
       <c r="C6" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D6" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E6" s="1">
-        <v>3812.8646</v>
+        <v>3820.5123</v>
       </c>
       <c r="F6" s="1">
-        <v>890.4503</v>
+        <v>892.2451</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40533.801</v>
+        <v>40533.7256</v>
       </c>
       <c r="I6" s="1">
-        <v>1289.9174</v>
+        <v>1129.378</v>
       </c>
       <c r="J6" s="1">
-        <v>41823.7184</v>
+        <v>41663.1035</v>
       </c>
       <c r="K6" s="1">
-        <v>38710.0826</v>
+        <v>38870.622</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1525</v>
+        <v>10.1742</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9466.199000000001</v>
+        <v>-9504.284100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0129</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.3176</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E7" s="1">
-        <v>4703.3149</v>
+        <v>4712.7574</v>
       </c>
       <c r="F7" s="1">
-        <v>1111.991</v>
+        <v>1114.1825</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48526.9218</v>
+        <v>48527.2633</v>
       </c>
       <c r="I7" s="1">
-        <v>1823.7184</v>
+        <v>1625.0939</v>
       </c>
       <c r="J7" s="1">
-        <v>50350.6402</v>
+        <v>50152.3572</v>
       </c>
       <c r="K7" s="1">
-        <v>48176.2816</v>
+        <v>48374.9061</v>
       </c>
       <c r="L7" s="1">
-        <v>10.243</v>
+        <v>10.2647</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11473.0782</v>
+        <v>-11518.7524</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0284</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.2392</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E8" s="1">
-        <v>5815.3059</v>
+        <v>5826.9399</v>
       </c>
       <c r="F8" s="1">
-        <v>1010.8837</v>
+        <v>985.0522999999999</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59544.08</v>
+        <v>59543.7506</v>
       </c>
       <c r="I8" s="1">
-        <v>350.6402</v>
+        <v>106.3415</v>
       </c>
       <c r="J8" s="1">
-        <v>59894.7202</v>
+        <v>59650.0921</v>
       </c>
       <c r="K8" s="1">
-        <v>59649.3598</v>
+        <v>59893.6585</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2573</v>
+        <v>10.2788</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10350.6402</v>
+        <v>-10106.3415</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0076</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D9" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6826.1896</v>
+        <v>6811.9922</v>
       </c>
       <c r="F9" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68117.8631</v>
+        <v>67840.6306</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68117.8631</v>
+        <v>67840.6306</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2546</v>
+        <v>10.276</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1308.4438</v>
+        <v>1311.0615</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8691.556200000001</v>
+        <v>-8688.9385</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0254</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.1873</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E10" s="1">
-        <v>7828.294</v>
+        <v>7812.0922</v>
       </c>
       <c r="F10" s="1">
-        <v>1006.2353</v>
+        <v>1040.1636</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79749.17939999999</v>
+        <v>79424.7605</v>
       </c>
       <c r="I10" s="1">
-        <v>1308.4438</v>
+        <v>1311.0615</v>
       </c>
       <c r="J10" s="1">
-        <v>81057.6232</v>
+        <v>80735.822</v>
       </c>
       <c r="K10" s="1">
         <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2193</v>
+        <v>10.2405</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10250.8206</v>
+        <v>-10617.6781</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0376</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.4058</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E11" s="1">
-        <v>8834.5293</v>
+        <v>8852.255800000001</v>
       </c>
       <c r="F11" s="1">
-        <v>775.4959</v>
+        <v>777.0171</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91930.3446</v>
+        <v>91930.677</v>
       </c>
       <c r="I11" s="1">
-        <v>1057.6232</v>
+        <v>693.3833</v>
       </c>
       <c r="J11" s="1">
-        <v>92987.9678</v>
+        <v>92624.0603</v>
       </c>
       <c r="K11" s="1">
-        <v>90250.82060000001</v>
+        <v>90617.6781</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2157</v>
+        <v>10.2367</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8069.6554</v>
+        <v>-8101.7246</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0212</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.2688</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E12" s="1">
-        <v>9610.0252</v>
+        <v>9629.272999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1102.0347</v>
+        <v>1104.2145</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>98683.42660000001</v>
+        <v>98683.6784</v>
       </c>
       <c r="I12" s="1">
-        <v>2987.9678</v>
+        <v>2591.6587</v>
       </c>
       <c r="J12" s="1">
-        <v>101671.3944</v>
+        <v>101275.3371</v>
       </c>
       <c r="K12" s="1">
-        <v>98320.476</v>
+        <v>98719.4028</v>
       </c>
       <c r="L12" s="1">
-        <v>10.231</v>
+        <v>10.252</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>795.1076</v>
+        <v>796.703</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10521.4658</v>
+        <v>-10565.0018</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0128</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.4938</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E13" s="1">
-        <v>10712.0598</v>
+        <v>10733.4875</v>
       </c>
       <c r="F13" s="1">
-        <v>723.2639</v>
+        <v>724.7663</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112410.2135</v>
+        <v>112409.6679</v>
       </c>
       <c r="I13" s="1">
-        <v>2466.502</v>
+        <v>2026.6569</v>
       </c>
       <c r="J13" s="1">
-        <v>114876.7155</v>
+        <v>114436.3248</v>
       </c>
       <c r="K13" s="1">
-        <v>109637.0495</v>
+        <v>110081.1076</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2349</v>
+        <v>10.2559</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7589.7865</v>
+        <v>-7620.7722</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0287</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.5481</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E14" s="1">
-        <v>11435.3237</v>
+        <v>11458.2538</v>
       </c>
       <c r="F14" s="1">
-        <v>-11435.3237</v>
+        <v>-11458.2538</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120620.9381</v>
+        <v>120621.0374</v>
       </c>
       <c r="I14" s="1">
-        <v>4876.7155</v>
+        <v>4405.8847</v>
       </c>
       <c r="J14" s="1">
-        <v>125497.6535</v>
+        <v>125026.922</v>
       </c>
       <c r="K14" s="1">
-        <v>117226.836</v>
+        <v>117701.8798</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2513</v>
+        <v>10.2722</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120620.9381</v>
+        <v>120621.0374</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.3341</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="F3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0435</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1979.3449</v>
+        <v>1975.388</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1044</v>
+        <v>10.1246</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.4908</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E5" s="1">
-        <v>2982.6055</v>
+        <v>2976.6395</v>
       </c>
       <c r="F5" s="1">
-        <v>858.9511</v>
+        <v>872.6223</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0583</v>
+        <v>10.0785</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9011.0838</v>
+        <v>-9172.8308</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0525</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.6308</v>
       </c>
       <c r="C6" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D6" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E6" s="1">
-        <v>3841.5565</v>
+        <v>3849.2618</v>
       </c>
       <c r="F6" s="1">
-        <v>909.0273</v>
+        <v>910.8594000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40838.8192</v>
+        <v>40838.7431</v>
       </c>
       <c r="I6" s="1">
-        <v>988.9162</v>
+        <v>827.1692</v>
       </c>
       <c r="J6" s="1">
-        <v>41827.7353</v>
+        <v>41665.9124</v>
       </c>
       <c r="K6" s="1">
-        <v>39011.0838</v>
+        <v>39172.8308</v>
       </c>
       <c r="L6" s="1">
-        <v>10.155</v>
+        <v>10.1767</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9663.687099999999</v>
+        <v>-9702.565699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.013</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.3176</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E7" s="1">
-        <v>4750.5838</v>
+        <v>4760.1212</v>
       </c>
       <c r="F7" s="1">
-        <v>1097.6612</v>
+        <v>1076.0573</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49014.6234</v>
+        <v>49014.9684</v>
       </c>
       <c r="I7" s="1">
-        <v>1325.2291</v>
+        <v>1124.6035</v>
       </c>
       <c r="J7" s="1">
-        <v>50339.8525</v>
+        <v>50139.5719</v>
       </c>
       <c r="K7" s="1">
-        <v>48674.7709</v>
+        <v>48875.3965</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2461</v>
+        <v>10.2677</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11325.2291</v>
+        <v>-11124.6035</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0287</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.2392</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E8" s="1">
-        <v>5848.245</v>
+        <v>5836.1786</v>
       </c>
       <c r="F8" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59881.3501</v>
+        <v>59638.1579</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>59881.3501</v>
+        <v>59638.1579</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2595</v>
+        <v>10.2807</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0076</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D9" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6824.8838</v>
+        <v>6810.8659</v>
       </c>
       <c r="F9" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>68104.8328</v>
+        <v>67829.4139</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68104.8328</v>
+        <v>67829.4139</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2566</v>
+        <v>10.2777</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1315.8551</v>
+        <v>1313.1402</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8684.144899999999</v>
+        <v>-8686.8598</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0254</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.1873</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E10" s="1">
-        <v>7826.9882</v>
+        <v>7810.9659</v>
       </c>
       <c r="F10" s="1">
-        <v>1110.7806</v>
+        <v>1108.2947</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79735.8769</v>
+        <v>79413.3097</v>
       </c>
       <c r="I10" s="1">
-        <v>1315.8551</v>
+        <v>1313.1402</v>
       </c>
       <c r="J10" s="1">
-        <v>81051.73209999999</v>
+        <v>80726.44990000001</v>
       </c>
       <c r="K10" s="1">
         <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>10.221</v>
+        <v>10.242</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11315.8551</v>
+        <v>-11313.1402</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0377</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.4058</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E11" s="1">
-        <v>8937.7688</v>
+        <v>8919.260700000001</v>
       </c>
       <c r="F11" s="1">
-        <v>891.3903</v>
+        <v>929.5852</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>93004.6345</v>
+        <v>92626.52220000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>93004.6345</v>
+        <v>92626.52220000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91315.8551</v>
+        <v>91313.14019999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2169</v>
+        <v>10.2377</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9275.629499999999</v>
+        <v>-9692.5056</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.2688</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E12" s="1">
-        <v>9829.159100000001</v>
+        <v>9848.845799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1044.3645</v>
+        <v>1001.7585</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100933.6693</v>
+        <v>100933.9269</v>
       </c>
       <c r="I12" s="1">
-        <v>724.3705</v>
+        <v>307.4944</v>
       </c>
       <c r="J12" s="1">
-        <v>101658.0397</v>
+        <v>101241.4213</v>
       </c>
       <c r="K12" s="1">
-        <v>100591.4847</v>
+        <v>101005.6458</v>
       </c>
       <c r="L12" s="1">
-        <v>10.234</v>
+        <v>10.2556</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>804.3992</v>
+        <v>802.7335</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9919.971299999999</v>
+        <v>-9504.760899999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0131</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.4938</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E13" s="1">
-        <v>10873.5237</v>
+        <v>10850.6044</v>
       </c>
       <c r="F13" s="1">
-        <v>881.5721</v>
+        <v>928.0626</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114104.5826</v>
+        <v>113636.2097</v>
       </c>
       <c r="I13" s="1">
-        <v>804.3992</v>
+        <v>802.7335</v>
       </c>
       <c r="J13" s="1">
-        <v>114908.9818</v>
+        <v>114438.9431</v>
       </c>
       <c r="K13" s="1">
-        <v>111315.8551</v>
+        <v>111313.1402</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2373</v>
+        <v>10.2587</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9251.0412</v>
+        <v>-9758.3927</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0291</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.5481</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E14" s="1">
-        <v>11755.0957</v>
+        <v>11778.667</v>
       </c>
       <c r="F14" s="1">
-        <v>-11755.0957</v>
+        <v>-11778.667</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123993.9254</v>
+        <v>123994.0275</v>
       </c>
       <c r="I14" s="1">
-        <v>1553.358</v>
+        <v>1044.3408</v>
       </c>
       <c r="J14" s="1">
-        <v>125547.2835</v>
+        <v>125038.3682</v>
       </c>
       <c r="K14" s="1">
-        <v>120566.8963</v>
+        <v>121071.5329</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2566</v>
+        <v>10.2789</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123993.9254</v>
+        <v>123994.0275</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.3341</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="F3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0435</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1979.3449</v>
+        <v>1975.388</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1044</v>
+        <v>10.1246</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.4908</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E5" s="1">
-        <v>2982.6055</v>
+        <v>2976.6395</v>
       </c>
       <c r="F5" s="1">
-        <v>887.8344</v>
+        <v>901.5635</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0583</v>
+        <v>10.0785</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9314.0926</v>
+        <v>-9477.055</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0525</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.6308</v>
       </c>
       <c r="C6" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D6" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E6" s="1">
-        <v>3870.4398</v>
+        <v>3878.203</v>
       </c>
       <c r="F6" s="1">
-        <v>927.8868</v>
+        <v>929.7568</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41145.8716</v>
+        <v>41145.795</v>
       </c>
       <c r="I6" s="1">
-        <v>685.9074000000001</v>
+        <v>522.9450000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>41831.779</v>
+        <v>41668.7399</v>
       </c>
       <c r="K6" s="1">
-        <v>39314.0926</v>
+        <v>39477.055</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1575</v>
+        <v>10.1792</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9864.1785</v>
+        <v>-9903.862800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0131</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.3176</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E7" s="1">
-        <v>4798.3266</v>
+        <v>4807.9599</v>
       </c>
       <c r="F7" s="1">
-        <v>1048.8611</v>
+        <v>1027.1594</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49507.2142</v>
+        <v>49507.5626</v>
       </c>
       <c r="I7" s="1">
-        <v>821.7289</v>
+        <v>619.0821999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>50328.9431</v>
+        <v>50126.6448</v>
       </c>
       <c r="K7" s="1">
-        <v>49178.2711</v>
+        <v>49380.9178</v>
       </c>
       <c r="L7" s="1">
-        <v>10.249</v>
+        <v>10.2707</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10821.7289</v>
+        <v>-10619.0822</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.029</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.2392</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E8" s="1">
-        <v>5847.1876</v>
+        <v>5835.1193</v>
       </c>
       <c r="F8" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59870.5236</v>
+        <v>59627.3333</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59870.5236</v>
+        <v>59627.3333</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2613</v>
+        <v>10.2826</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0076</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D9" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6823.8264</v>
+        <v>6809.8066</v>
       </c>
       <c r="F9" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>68094.2816</v>
+        <v>67818.8643</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68094.2816</v>
+        <v>67818.8643</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2582</v>
+        <v>10.2793</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1315.6172</v>
+        <v>1312.9018</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8684.382799999999</v>
+        <v>-8687.0982</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0254</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.1873</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E10" s="1">
-        <v>7825.9308</v>
+        <v>7809.9067</v>
       </c>
       <c r="F10" s="1">
-        <v>1110.7572</v>
+        <v>1108.2714</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79725.1053</v>
+        <v>79402.5399</v>
       </c>
       <c r="I10" s="1">
-        <v>1315.6172</v>
+        <v>1312.9018</v>
       </c>
       <c r="J10" s="1">
-        <v>81040.72259999999</v>
+        <v>80715.4418</v>
       </c>
       <c r="K10" s="1">
         <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2224</v>
+        <v>10.2434</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11315.6172</v>
+        <v>-11312.9018</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0377</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.4058</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E11" s="1">
-        <v>8936.688099999999</v>
+        <v>8918.178</v>
       </c>
       <c r="F11" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92993.38890000001</v>
+        <v>92615.2789</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>92993.38890000001</v>
+        <v>92615.2789</v>
       </c>
       <c r="K11" s="1">
-        <v>91315.61719999999</v>
+        <v>91312.90180000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2181</v>
+        <v>10.239</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.2688</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E12" s="1">
-        <v>9897.6906</v>
+        <v>9877.254300000001</v>
       </c>
       <c r="F12" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101637.4053</v>
+        <v>101225.0648</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101637.4053</v>
+        <v>101225.0648</v>
       </c>
       <c r="K12" s="1">
-        <v>101315.6172</v>
+        <v>101312.9018</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2363</v>
+        <v>10.2572</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>804.3019</v>
+        <v>802.636</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9195.6981</v>
+        <v>-9197.364</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0132</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.4938</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E13" s="1">
-        <v>10871.5142</v>
+        <v>10849.1282</v>
       </c>
       <c r="F13" s="1">
-        <v>1029.5891</v>
+        <v>1027.3744</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>114083.496</v>
+        <v>113620.7501</v>
       </c>
       <c r="I13" s="1">
-        <v>804.3019</v>
+        <v>802.636</v>
       </c>
       <c r="J13" s="1">
-        <v>114887.7979</v>
+        <v>114423.3861</v>
       </c>
       <c r="K13" s="1">
-        <v>111315.6172</v>
+        <v>111312.9018</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2392</v>
+        <v>10.2601</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10804.3019</v>
+        <v>-10802.636</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0291</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.5481</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E14" s="1">
-        <v>11901.1033</v>
+        <v>11876.5026</v>
       </c>
       <c r="F14" s="1">
-        <v>-11901.1033</v>
+        <v>-11876.5026</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125534.0278</v>
+        <v>125023.9428</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125534.0278</v>
+        <v>125023.9428</v>
       </c>
       <c r="K14" s="1">
-        <v>122119.9191</v>
+        <v>122115.5379</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2612</v>
+        <v>10.2821</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125534.0278</v>
+        <v>125023.9428</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.3341</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="F3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9565.032300000001</v>
+        <v>9526.789500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0435</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1979.3449</v>
+        <v>1975.388</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19729.12</v>
+        <v>19650.3694</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1044</v>
+        <v>10.1246</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.4908</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E5" s="1">
-        <v>2982.6055</v>
+        <v>2976.6395</v>
       </c>
       <c r="F5" s="1">
-        <v>916.9097</v>
+        <v>930.6972</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31289.9174</v>
+        <v>31164.8206</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0583</v>
+        <v>10.0785</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9619.1163</v>
+        <v>-9783.3024</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0525</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.6308</v>
       </c>
       <c r="C6" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D6" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E6" s="1">
-        <v>3899.5152</v>
+        <v>3907.3367</v>
       </c>
       <c r="F6" s="1">
-        <v>947.0316</v>
+        <v>948.9402</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41454.9659</v>
+        <v>41454.8887</v>
       </c>
       <c r="I6" s="1">
-        <v>380.8837</v>
+        <v>216.6976</v>
       </c>
       <c r="J6" s="1">
-        <v>41835.8495</v>
+        <v>41671.5863</v>
       </c>
       <c r="K6" s="1">
-        <v>39619.1163</v>
+        <v>39783.3024</v>
       </c>
       <c r="L6" s="1">
-        <v>10.16</v>
+        <v>10.1817</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10067.7034</v>
+        <v>-10108.2054</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0132</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.3176</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E7" s="1">
-        <v>4846.5468</v>
+        <v>4856.2769</v>
       </c>
       <c r="F7" s="1">
-        <v>999.5716</v>
+        <v>977.7712</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50004.7308</v>
+        <v>50005.0827</v>
       </c>
       <c r="I7" s="1">
-        <v>313.1803</v>
+        <v>108.4922</v>
       </c>
       <c r="J7" s="1">
-        <v>50317.9111</v>
+        <v>50113.5749</v>
       </c>
       <c r="K7" s="1">
-        <v>49686.8197</v>
+        <v>49891.5078</v>
       </c>
       <c r="L7" s="1">
-        <v>10.252</v>
+        <v>10.2736</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10313.1803</v>
+        <v>-10108.4922</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0293</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.2392</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E8" s="1">
-        <v>5846.1184</v>
+        <v>5834.0481</v>
       </c>
       <c r="F8" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59859.5754</v>
+        <v>59616.387</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59859.5754</v>
+        <v>59616.387</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2632</v>
+        <v>10.2845</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0076</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D9" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6822.7572</v>
+        <v>6808.7354</v>
       </c>
       <c r="F9" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>68083.61169999999</v>
+        <v>67808.19620000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68083.61169999999</v>
+        <v>67808.19620000001</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2598</v>
+        <v>10.2809</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1315.3766</v>
+        <v>1312.6608</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8684.6234</v>
+        <v>-8687.3392</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0254</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.1873</v>
       </c>
       <c r="C10" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D10" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E10" s="1">
-        <v>7824.8616</v>
+        <v>7808.8354</v>
       </c>
       <c r="F10" s="1">
-        <v>1110.7336</v>
+        <v>1108.2478</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79714.2127</v>
+        <v>79391.6491</v>
       </c>
       <c r="I10" s="1">
-        <v>1315.3766</v>
+        <v>1312.6608</v>
       </c>
       <c r="J10" s="1">
-        <v>81029.58930000001</v>
+        <v>80704.30989999999</v>
       </c>
       <c r="K10" s="1">
         <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2238</v>
+        <v>10.2448</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11315.3766</v>
+        <v>-11312.6608</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0377</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.4058</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E11" s="1">
-        <v>8935.5952</v>
+        <v>8917.083199999999</v>
       </c>
       <c r="F11" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92982.0168</v>
+        <v>92603.9093</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>92982.0168</v>
+        <v>92603.9093</v>
       </c>
       <c r="K11" s="1">
-        <v>91315.3766</v>
+        <v>91312.6608</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2193</v>
+        <v>10.2402</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.2688</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E12" s="1">
-        <v>9896.5977</v>
+        <v>9876.1594</v>
       </c>
       <c r="F12" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101626.183</v>
+        <v>101213.8448</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101626.183</v>
+        <v>101213.8448</v>
       </c>
       <c r="K12" s="1">
-        <v>101315.3766</v>
+        <v>101312.6608</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2374</v>
+        <v>10.2583</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>804.2036000000001</v>
+        <v>802.5375</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9195.796399999999</v>
+        <v>-9197.4625</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0132</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.4938</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E13" s="1">
-        <v>10870.4214</v>
+        <v>10848.0334</v>
       </c>
       <c r="F13" s="1">
-        <v>1029.5797</v>
+        <v>1027.365</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>114072.0278</v>
+        <v>113609.2843</v>
       </c>
       <c r="I13" s="1">
-        <v>804.2036000000001</v>
+        <v>802.5375</v>
       </c>
       <c r="J13" s="1">
-        <v>114876.2313</v>
+        <v>114411.8218</v>
       </c>
       <c r="K13" s="1">
-        <v>111315.3766</v>
+        <v>111312.6608</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2402</v>
+        <v>10.2611</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10804.2036</v>
+        <v>-10802.5375</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0291</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.5481</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E14" s="1">
-        <v>11900.0011</v>
+        <v>11875.3984</v>
       </c>
       <c r="F14" s="1">
-        <v>-11900.0011</v>
+        <v>-11875.3984</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125522.4014</v>
+        <v>125012.319</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125522.4014</v>
+        <v>125012.319</v>
       </c>
       <c r="K14" s="1">
-        <v>122119.5802</v>
+        <v>122115.1983</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2621</v>
+        <v>10.283</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125522.4014</v>
+        <v>125012.319</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2641</v>
+        <v>10.2847</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2513</v>
+        <v>10.2722</v>
       </c>
       <c r="E3" s="1">
-        <v>10.2566</v>
+        <v>10.2789</v>
       </c>
       <c r="F3" s="1">
-        <v>10.2612</v>
+        <v>10.2821</v>
       </c>
       <c r="G3" s="1">
-        <v>10.2621</v>
+        <v>10.283</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0245</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0483</v>
+        <v>0.0359</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0486</v>
+        <v>0.0366</v>
       </c>
       <c r="E4" s="3">
-        <v>0.049</v>
+        <v>0.0366</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0488</v>
+        <v>0.0364</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0486</v>
+        <v>0.0362</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0958</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0953</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0956</v>
+        <v>0.0969</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0958</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0959</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.0468</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2915</v>
+        <v>0.1606</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2972</v>
+        <v>0.1687</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3001</v>
+        <v>0.1683</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2974</v>
+        <v>0.1657</v>
       </c>
       <c r="G6" s="4">
-        <v>0.2951</v>
+        <v>0.1634</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="D7" s="3">
-        <v>0.08749999999999999</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0872</v>
+        <v>0.079</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0866</v>
+        <v>0.0785</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0864</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2110.7334</v>
+        <v>2106.5063</v>
       </c>
       <c r="D8" s="1">
-        <v>2103.5515</v>
+        <v>2107.7645</v>
       </c>
       <c r="E8" s="1">
-        <v>2120.2543</v>
+        <v>2115.8736</v>
       </c>
       <c r="F8" s="1">
-        <v>2119.9191</v>
+        <v>2115.5379</v>
       </c>
       <c r="G8" s="1">
-        <v>2119.5802</v>
+        <v>2115.1983</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P86_KFSDIV.xlsx
+++ b/output/1Y_P86_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>2871.3587</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0235</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0688</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0397</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.024</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
